--- a/database/xl_dir/2022-12-14.xlsx
+++ b/database/xl_dir/2022-12-14.xlsx
@@ -480,7 +480,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18時0分</t>
+          <t>23時32分</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -504,7 +504,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>37秒時点</t>
+          <t>4秒時点</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -526,6 +526,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DB名は</t>
+        </is>
+      </c>
       <c r="B5" t="n">
         <v>454545</v>
       </c>
@@ -545,6 +550,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>students</t>
+        </is>
+      </c>
       <c r="B6" t="n">
         <v>210103</v>
       </c>
